--- a/biology/Botanique/Morus_notabilis/Morus_notabilis.xlsx
+++ b/biology/Botanique/Morus_notabilis/Morus_notabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus notabilis est une espèce de plantes dicotylédones de la famille des Moraceae, originaire de Chine. Ce sont des arbres dioïques, de taille moyenne à grande, à feuilles caduques.
-C'est la première espèce de mûrier dont le génome, qui compte 7 paires de chromosomes, a été séquencé. Sur un total de 330 Mb, 128 Mb de séquences répétitives ont été identifiées, ainsi que 29 338 gènes[2]. 
+C'est la première espèce de mûrier dont le génome, qui compte 7 paires de chromosomes, a été séquencé. Sur un total de 330 Mb, 128 Mb de séquences répétitives ont été identifiées, ainsi que 29 338 gènes. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Kew Science[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Kew Science :
 Morus mongolica  var. yunnanensis (Koidz.) C.Y.Wu &amp; Z.Y.Cao
 Morus yunnanensis Koidz.</t>
         </is>
